--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1288,7 +1288,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://www.vision-zero-oncology.de/fhir/StructureDefinition/tumor)
 </t>
   </si>
   <si>
@@ -1334,7 +1334,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(https://www.vision-zero-oncology.de/fhir/StructureDefinition/tumor-disorder)
 </t>
   </si>
   <si>
@@ -11290,7 +11290,7 @@
         <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pr-medication-statement.xlsx
+++ b/StructureDefinition-pr-medication-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
